--- a/Mec_ver4-main/data/data9002_reverse.xlsx
+++ b/Mec_ver4-main/data/data9002_reverse.xlsx
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A445" sqref="A445:P887"/>
+    <sheetView tabSelected="1" topLeftCell="C501" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q439" sqref="Q439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -22732,7 +22732,7 @@
         <v>0.15938713277362929</v>
       </c>
       <c r="P446">
-        <v>35382</v>
+        <v>35748</v>
       </c>
     </row>
     <row r="447" spans="1:16">
@@ -22782,7 +22782,7 @@
         <v>0.1094996667924725</v>
       </c>
       <c r="P447">
-        <v>35270</v>
+        <v>35860</v>
       </c>
     </row>
     <row r="448" spans="1:16">
@@ -22832,7 +22832,7 @@
         <v>0.46005518649714122</v>
       </c>
       <c r="P448">
-        <v>35158</v>
+        <v>35972</v>
       </c>
     </row>
     <row r="449" spans="1:16">
@@ -22882,7 +22882,7 @@
         <v>0.53774672005946189</v>
       </c>
       <c r="P449">
-        <v>35046</v>
+        <v>36084</v>
       </c>
     </row>
     <row r="450" spans="1:16">
@@ -22932,7 +22932,7 @@
         <v>0.22735795111414889</v>
       </c>
       <c r="P450">
-        <v>34817</v>
+        <v>36313</v>
       </c>
     </row>
     <row r="451" spans="1:16">
@@ -22982,7 +22982,7 @@
         <v>0.25144670576396327</v>
       </c>
       <c r="P451">
-        <v>34700</v>
+        <v>36430</v>
       </c>
     </row>
     <row r="452" spans="1:16">
@@ -23032,7 +23032,7 @@
         <v>0.53990055636640921</v>
       </c>
       <c r="P452">
-        <v>34587</v>
+        <v>36543</v>
       </c>
     </row>
     <row r="453" spans="1:16">
@@ -23082,7 +23082,7 @@
         <v>0.67128686261726445</v>
       </c>
       <c r="P453">
-        <v>34476</v>
+        <v>36654</v>
       </c>
     </row>
     <row r="454" spans="1:16">
@@ -23132,7 +23132,7 @@
         <v>0.69772855366747644</v>
       </c>
       <c r="P454">
-        <v>34359</v>
+        <v>36771</v>
       </c>
     </row>
     <row r="455" spans="1:16">
@@ -23182,7 +23182,7 @@
         <v>0.43266127158584461</v>
       </c>
       <c r="P455">
-        <v>34246</v>
+        <v>36884</v>
       </c>
     </row>
     <row r="456" spans="1:16">
@@ -23232,7 +23232,7 @@
         <v>0.50261469746791132</v>
       </c>
       <c r="P456">
-        <v>34133</v>
+        <v>36997</v>
       </c>
     </row>
     <row r="457" spans="1:16">
@@ -23282,7 +23282,7 @@
         <v>0.6423114849248075</v>
       </c>
       <c r="P457">
-        <v>34030</v>
+        <v>37100</v>
       </c>
     </row>
     <row r="458" spans="1:16">
@@ -23332,7 +23332,7 @@
         <v>0.58335014637421667</v>
       </c>
       <c r="P458">
-        <v>33907</v>
+        <v>37223</v>
       </c>
     </row>
     <row r="459" spans="1:16">
@@ -23382,7 +23382,7 @@
         <v>0.16643410341596729</v>
       </c>
       <c r="P459">
-        <v>33794</v>
+        <v>37336</v>
       </c>
     </row>
     <row r="460" spans="1:16">
@@ -23432,7 +23432,7 @@
         <v>0.7319941479280162</v>
       </c>
       <c r="P460">
-        <v>33681</v>
+        <v>37449</v>
       </c>
     </row>
     <row r="461" spans="1:16">
@@ -23482,7 +23482,7 @@
         <v>0.35662625046550622</v>
       </c>
       <c r="P461">
-        <v>33565</v>
+        <v>37565</v>
       </c>
     </row>
     <row r="462" spans="1:16">
@@ -23532,7 +23532,7 @@
         <v>0.35662625046550622</v>
       </c>
       <c r="P462">
-        <v>33564</v>
+        <v>37566</v>
       </c>
     </row>
     <row r="463" spans="1:16">
@@ -23582,7 +23582,7 @@
         <v>0.28674323354713199</v>
       </c>
       <c r="P463">
-        <v>33449</v>
+        <v>37681</v>
       </c>
     </row>
     <row r="464" spans="1:16">
@@ -23632,7 +23632,7 @@
         <v>0.20329108817234631</v>
       </c>
       <c r="P464">
-        <v>33336</v>
+        <v>37794</v>
       </c>
     </row>
     <row r="465" spans="1:16">
@@ -23682,7 +23682,7 @@
         <v>0.40861812697329619</v>
       </c>
       <c r="P465">
-        <v>33222</v>
+        <v>37908</v>
       </c>
     </row>
     <row r="466" spans="1:16">
@@ -23732,7 +23732,7 @@
         <v>0.67384062544360401</v>
       </c>
       <c r="P466">
-        <v>33112</v>
+        <v>38018</v>
       </c>
     </row>
     <row r="467" spans="1:16">
@@ -23782,7 +23782,7 @@
         <v>0.81195645499898594</v>
       </c>
       <c r="P467">
-        <v>33003</v>
+        <v>38127</v>
       </c>
     </row>
     <row r="468" spans="1:16">
@@ -23832,7 +23832,7 @@
         <v>0.66266610733462139</v>
       </c>
       <c r="P468">
-        <v>32892</v>
+        <v>38238</v>
       </c>
     </row>
     <row r="469" spans="1:16">
@@ -23882,7 +23882,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P469">
-        <v>32674</v>
+        <v>38456</v>
       </c>
     </row>
     <row r="470" spans="1:16">
@@ -23932,7 +23932,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P470">
-        <v>32565</v>
+        <v>38565</v>
       </c>
     </row>
     <row r="471" spans="1:16">
@@ -23982,7 +23982,7 @@
         <v>0.66246556292334613</v>
       </c>
       <c r="P471">
-        <v>32469</v>
+        <v>38661</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -24032,7 +24032,7 @@
         <v>0.18544490653440729</v>
       </c>
       <c r="P472">
-        <v>32247</v>
+        <v>38883</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -24082,7 +24082,7 @@
         <v>0.32890587141401828</v>
       </c>
       <c r="P473">
-        <v>32140</v>
+        <v>38990</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -24132,7 +24132,7 @@
         <v>0.33845172738017282</v>
       </c>
       <c r="P474">
-        <v>32028</v>
+        <v>39102</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -24182,7 +24182,7 @@
         <v>0.39730362316048667</v>
       </c>
       <c r="P475">
-        <v>31919</v>
+        <v>39211</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -24232,7 +24232,7 @@
         <v>0.45017269118927322</v>
       </c>
       <c r="P476">
-        <v>31810</v>
+        <v>39320</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -24282,7 +24282,7 @@
         <v>0.67283761198976744</v>
       </c>
       <c r="P477">
-        <v>31695</v>
+        <v>39435</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -24332,7 +24332,7 @@
         <v>0.61300503874007628</v>
       </c>
       <c r="P478">
-        <v>31573</v>
+        <v>39557</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -24382,7 +24382,7 @@
         <v>0.1941537458506789</v>
       </c>
       <c r="P479">
-        <v>31452</v>
+        <v>39678</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -24432,7 +24432,7 @@
         <v>0.18756529371268529</v>
       </c>
       <c r="P480">
-        <v>31345</v>
+        <v>39785</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -24482,7 +24482,7 @@
         <v>0.67792263521633211</v>
       </c>
       <c r="P481">
-        <v>31238</v>
+        <v>39892</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -24532,7 +24532,7 @@
         <v>0.69810069507928441</v>
       </c>
       <c r="P482">
-        <v>31129</v>
+        <v>40001</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -24582,7 +24582,7 @@
         <v>0.70048031224742491</v>
       </c>
       <c r="P483">
-        <v>31024</v>
+        <v>40106</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -24632,7 +24632,7 @@
         <v>0.73682952734807394</v>
       </c>
       <c r="P484">
-        <v>30915</v>
+        <v>40215</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -24682,7 +24682,7 @@
         <v>0.58290051811192767</v>
       </c>
       <c r="P485">
-        <v>30812</v>
+        <v>40318</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -24732,7 +24732,7 @@
         <v>0.52515745982679329</v>
       </c>
       <c r="P486">
-        <v>30705</v>
+        <v>40425</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -24782,7 +24782,7 @@
         <v>0.28097871003055769</v>
       </c>
       <c r="P487">
-        <v>30601</v>
+        <v>40529</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -24832,7 +24832,7 @@
         <v>0.19624448644463871</v>
       </c>
       <c r="P488">
-        <v>30497</v>
+        <v>40633</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -24882,7 +24882,7 @@
         <v>0.43091781314242511</v>
       </c>
       <c r="P489">
-        <v>30397</v>
+        <v>40733</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -24932,7 +24932,7 @@
         <v>0.63511317803076706</v>
       </c>
       <c r="P490">
-        <v>30294</v>
+        <v>40836</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -24982,7 +24982,7 @@
         <v>0.62297757267368781</v>
       </c>
       <c r="P491">
-        <v>30191</v>
+        <v>40939</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -25032,7 +25032,7 @@
         <v>0.56213983646267229</v>
       </c>
       <c r="P492">
-        <v>30089</v>
+        <v>41041</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -25082,7 +25082,7 @@
         <v>0.26424536092042838</v>
       </c>
       <c r="P493">
-        <v>29983</v>
+        <v>41147</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -25132,7 +25132,7 @@
         <v>0.10822710571963939</v>
       </c>
       <c r="P494">
-        <v>29884</v>
+        <v>41246</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -25182,7 +25182,7 @@
         <v>0.22420310770734139</v>
       </c>
       <c r="P495">
-        <v>29782</v>
+        <v>41348</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -25232,7 +25232,7 @@
         <v>0.50295307770163344</v>
       </c>
       <c r="P496">
-        <v>29676</v>
+        <v>41454</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -25282,7 +25282,7 @@
         <v>0.46857286548969362</v>
       </c>
       <c r="P497">
-        <v>29579</v>
+        <v>41551</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -25332,7 +25332,7 @@
         <v>0.46857286548969362</v>
       </c>
       <c r="P498">
-        <v>29482</v>
+        <v>41648</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -25382,7 +25382,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P499">
-        <v>29381</v>
+        <v>41749</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -25432,7 +25432,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P500">
-        <v>29285</v>
+        <v>41845</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -25482,7 +25482,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P501">
-        <v>29188</v>
+        <v>41942</v>
       </c>
     </row>
     <row r="502" spans="1:16">
@@ -25532,7 +25532,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P502">
-        <v>29092</v>
+        <v>42038</v>
       </c>
     </row>
     <row r="503" spans="1:16">
@@ -25582,7 +25582,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P503">
-        <v>28994</v>
+        <v>42136</v>
       </c>
     </row>
     <row r="504" spans="1:16">
@@ -25632,7 +25632,7 @@
         <v>0.3197177055222431</v>
       </c>
       <c r="P504">
-        <v>28800</v>
+        <v>42330</v>
       </c>
     </row>
     <row r="505" spans="1:16">
@@ -25682,7 +25682,7 @@
         <v>0.13543293472306689</v>
       </c>
       <c r="P505">
-        <v>28719</v>
+        <v>42411</v>
       </c>
     </row>
     <row r="506" spans="1:16">
@@ -25732,7 +25732,7 @@
         <v>0.19916779008607921</v>
       </c>
       <c r="P506">
-        <v>28616</v>
+        <v>42514</v>
       </c>
     </row>
     <row r="507" spans="1:16">
@@ -25782,7 +25782,7 @@
         <v>0.45392283077016521</v>
       </c>
       <c r="P507">
-        <v>28524</v>
+        <v>42606</v>
       </c>
     </row>
     <row r="508" spans="1:16">
@@ -25832,7 +25832,7 @@
         <v>0.46618360266788439</v>
       </c>
       <c r="P508">
-        <v>28432</v>
+        <v>42698</v>
       </c>
     </row>
     <row r="509" spans="1:16">
@@ -25882,7 +25882,7 @@
         <v>0.62944580159917851</v>
       </c>
       <c r="P509">
-        <v>28342</v>
+        <v>42788</v>
       </c>
     </row>
     <row r="510" spans="1:16">
@@ -25932,7 +25932,7 @@
         <v>0.4375520526667509</v>
       </c>
       <c r="P510">
-        <v>28253</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -25982,7 +25982,7 @@
         <v>0.221110212303645</v>
       </c>
       <c r="P511">
-        <v>28145</v>
+        <v>42985</v>
       </c>
     </row>
     <row r="512" spans="1:16">
@@ -26032,7 +26032,7 @@
         <v>0.67631333471010446</v>
       </c>
       <c r="P512">
-        <v>27862</v>
+        <v>43268</v>
       </c>
     </row>
     <row r="513" spans="1:16">
@@ -26082,7 +26082,7 @@
         <v>0.69998976334674701</v>
       </c>
       <c r="P513">
-        <v>27687</v>
+        <v>43443</v>
       </c>
     </row>
     <row r="514" spans="1:16">
@@ -26132,7 +26132,7 @@
         <v>0.55939303514373118</v>
       </c>
       <c r="P514">
-        <v>27598</v>
+        <v>43532</v>
       </c>
     </row>
     <row r="515" spans="1:16">
@@ -26182,7 +26182,7 @@
         <v>0.26904003328048121</v>
       </c>
       <c r="P515">
-        <v>27507</v>
+        <v>43623</v>
       </c>
     </row>
     <row r="516" spans="1:16">
@@ -26232,7 +26232,7 @@
         <v>0.26904003328048121</v>
       </c>
       <c r="P516">
-        <v>27507</v>
+        <v>43623</v>
       </c>
     </row>
     <row r="517" spans="1:16">
@@ -26282,7 +26282,7 @@
         <v>0.47283235400553342</v>
       </c>
       <c r="P517">
-        <v>27417</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="518" spans="1:16">
@@ -26332,7 +26332,7 @@
         <v>0.66121396238376817</v>
       </c>
       <c r="P518">
-        <v>27325</v>
+        <v>43805</v>
       </c>
     </row>
     <row r="519" spans="1:16">
@@ -26382,7 +26382,7 @@
         <v>0.66567364576548504</v>
       </c>
       <c r="P519">
-        <v>27236</v>
+        <v>43894</v>
       </c>
     </row>
     <row r="520" spans="1:16">
@@ -26432,7 +26432,7 @@
         <v>0.49186695931693142</v>
       </c>
       <c r="P520">
-        <v>27147</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="521" spans="1:16">
@@ -26482,7 +26482,7 @@
         <v>0.42285045775535007</v>
       </c>
       <c r="P521">
-        <v>27061</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="522" spans="1:16">
@@ -26532,7 +26532,7 @@
         <v>0.50309032352443128</v>
       </c>
       <c r="P522">
-        <v>26974</v>
+        <v>44156</v>
       </c>
     </row>
     <row r="523" spans="1:16">
@@ -26582,7 +26582,7 @@
         <v>0.30329079228392308</v>
       </c>
       <c r="P523">
-        <v>26887</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="524" spans="1:16">
@@ -26632,7 +26632,7 @@
         <v>0.32836607267395879</v>
       </c>
       <c r="P524">
-        <v>26802</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="525" spans="1:16">
@@ -26682,7 +26682,7 @@
         <v>0.20456297491789641</v>
       </c>
       <c r="P525">
-        <v>26715</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="526" spans="1:16">
@@ -26732,7 +26732,7 @@
         <v>0.28500774204347501</v>
       </c>
       <c r="P526">
-        <v>26628</v>
+        <v>44502</v>
       </c>
     </row>
     <row r="527" spans="1:16">
@@ -26782,7 +26782,7 @@
         <v>0.40299606753124811</v>
       </c>
       <c r="P527">
-        <v>26544</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="528" spans="1:16">
@@ -26832,7 +26832,7 @@
         <v>0.68462991528090988</v>
       </c>
       <c r="P528">
-        <v>26457</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="529" spans="1:16">
@@ -26882,7 +26882,7 @@
         <v>0.8330829548467602</v>
       </c>
       <c r="P529">
-        <v>26370</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="530" spans="1:16">
@@ -26932,7 +26932,7 @@
         <v>0.66266610733462139</v>
       </c>
       <c r="P530">
-        <v>26284</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="531" spans="1:16">
@@ -26982,7 +26982,7 @@
         <v>0.66266610733462139</v>
       </c>
       <c r="P531">
-        <v>26199</v>
+        <v>44931</v>
       </c>
     </row>
     <row r="532" spans="1:16">
@@ -27032,7 +27032,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P532">
-        <v>26115</v>
+        <v>45015</v>
       </c>
     </row>
     <row r="533" spans="1:16">
@@ -27082,7 +27082,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P533">
-        <v>26034</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="534" spans="1:16">
@@ -27132,7 +27132,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P534">
-        <v>25950</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="535" spans="1:16">
@@ -27182,7 +27182,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P535">
-        <v>25869</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="536" spans="1:16">
@@ -27232,7 +27232,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P536">
-        <v>25789</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="537" spans="1:16">
@@ -27282,7 +27282,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P537">
-        <v>25707</v>
+        <v>45423</v>
       </c>
     </row>
     <row r="538" spans="1:16">
@@ -27332,7 +27332,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P538">
-        <v>25623</v>
+        <v>45507</v>
       </c>
     </row>
     <row r="539" spans="1:16">
@@ -27382,7 +27382,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P539">
-        <v>25540</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="540" spans="1:16">
@@ -27432,7 +27432,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P540">
-        <v>25459</v>
+        <v>45671</v>
       </c>
     </row>
     <row r="541" spans="1:16">
@@ -27482,7 +27482,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P541">
-        <v>25380</v>
+        <v>45750</v>
       </c>
     </row>
     <row r="542" spans="1:16">
@@ -27532,7 +27532,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P542">
-        <v>25300</v>
+        <v>45830</v>
       </c>
     </row>
     <row r="543" spans="1:16">
@@ -27582,7 +27582,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P543">
-        <v>25220</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="544" spans="1:16">
@@ -27632,7 +27632,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P544">
-        <v>25139</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="545" spans="1:16">
@@ -27682,7 +27682,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P545">
-        <v>25060</v>
+        <v>46070</v>
       </c>
     </row>
     <row r="546" spans="1:16">
@@ -27732,7 +27732,7 @@
         <v>0.31338361258763248</v>
       </c>
       <c r="P546">
-        <v>24904</v>
+        <v>46226</v>
       </c>
     </row>
     <row r="547" spans="1:16">
@@ -27782,7 +27782,7 @@
         <v>0.1823892179955717</v>
       </c>
       <c r="P547">
-        <v>24826</v>
+        <v>46304</v>
       </c>
     </row>
     <row r="548" spans="1:16">
@@ -27832,7 +27832,7 @@
         <v>0.20500302405801221</v>
       </c>
       <c r="P548">
-        <v>24748</v>
+        <v>46382</v>
       </c>
     </row>
     <row r="549" spans="1:16">
@@ -27882,7 +27882,7 @@
         <v>0.32986345467374728</v>
       </c>
       <c r="P549">
-        <v>24596</v>
+        <v>46534</v>
       </c>
     </row>
     <row r="550" spans="1:16">
@@ -27932,7 +27932,7 @@
         <v>0.75401237723605696</v>
       </c>
       <c r="P550">
-        <v>24520</v>
+        <v>46610</v>
       </c>
     </row>
     <row r="551" spans="1:16">
@@ -27982,7 +27982,7 @@
         <v>0.23922104191298671</v>
       </c>
       <c r="P551">
-        <v>24443</v>
+        <v>46687</v>
       </c>
     </row>
     <row r="552" spans="1:16">
@@ -28032,7 +28032,7 @@
         <v>0.60580602515217286</v>
       </c>
       <c r="P552">
-        <v>24368</v>
+        <v>46762</v>
       </c>
     </row>
     <row r="553" spans="1:16">
@@ -28082,7 +28082,7 @@
         <v>0.71247147778783004</v>
       </c>
       <c r="P553">
-        <v>24295</v>
+        <v>46835</v>
       </c>
     </row>
     <row r="554" spans="1:16">
@@ -28132,7 +28132,7 @@
         <v>0.61360240013253609</v>
       </c>
       <c r="P554">
-        <v>24221</v>
+        <v>46909</v>
       </c>
     </row>
     <row r="555" spans="1:16">
@@ -28182,7 +28182,7 @@
         <v>0.25136108506801519</v>
       </c>
       <c r="P555">
-        <v>24144</v>
+        <v>46986</v>
       </c>
     </row>
     <row r="556" spans="1:16">
@@ -28232,7 +28232,7 @@
         <v>0.46527701592692072</v>
       </c>
       <c r="P556">
-        <v>24069</v>
+        <v>47061</v>
       </c>
     </row>
     <row r="557" spans="1:16">
@@ -28282,7 +28282,7 @@
         <v>0.70124762372773475</v>
       </c>
       <c r="P557">
-        <v>23995</v>
+        <v>47135</v>
       </c>
     </row>
     <row r="558" spans="1:16">
@@ -28332,7 +28332,7 @@
         <v>0.70460846941086974</v>
       </c>
       <c r="P558">
-        <v>23921</v>
+        <v>47209</v>
       </c>
     </row>
     <row r="559" spans="1:16">
@@ -28382,7 +28382,7 @@
         <v>0.58749102412010412</v>
       </c>
       <c r="P559">
-        <v>23847</v>
+        <v>47283</v>
       </c>
     </row>
     <row r="560" spans="1:16">
@@ -28432,7 +28432,7 @@
         <v>0.42914822624783561</v>
       </c>
       <c r="P560">
-        <v>23775</v>
+        <v>47355</v>
       </c>
     </row>
     <row r="561" spans="1:16">
@@ -28482,7 +28482,7 @@
         <v>0.31028142693706312</v>
       </c>
       <c r="P561">
-        <v>23702</v>
+        <v>47428</v>
       </c>
     </row>
     <row r="562" spans="1:16">
@@ -28532,7 +28532,7 @@
         <v>8.1307146125092447E-2</v>
       </c>
       <c r="P562">
-        <v>23619</v>
+        <v>47511</v>
       </c>
     </row>
     <row r="563" spans="1:16">
@@ -28582,7 +28582,7 @@
         <v>0.15018639167742839</v>
       </c>
       <c r="P563">
-        <v>23547</v>
+        <v>47583</v>
       </c>
     </row>
     <row r="564" spans="1:16">
@@ -28632,7 +28632,7 @@
         <v>0.32096295468265318</v>
       </c>
       <c r="P564">
-        <v>23475</v>
+        <v>47655</v>
       </c>
     </row>
     <row r="565" spans="1:16">
@@ -28682,7 +28682,7 @@
         <v>0.38534413751564223</v>
       </c>
       <c r="P565">
-        <v>23405</v>
+        <v>47725</v>
       </c>
     </row>
     <row r="566" spans="1:16">
@@ -28732,7 +28732,7 @@
         <v>0.47724827293947591</v>
       </c>
       <c r="P566">
-        <v>23334</v>
+        <v>47796</v>
       </c>
     </row>
     <row r="567" spans="1:16">
@@ -28782,7 +28782,7 @@
         <v>0.47724827293947591</v>
       </c>
       <c r="P567">
-        <v>23334</v>
+        <v>47796</v>
       </c>
     </row>
     <row r="568" spans="1:16">
@@ -28832,7 +28832,7 @@
         <v>0.60469106940677875</v>
       </c>
       <c r="P568">
-        <v>23261</v>
+        <v>47869</v>
       </c>
     </row>
     <row r="569" spans="1:16">
@@ -28882,7 +28882,7 @@
         <v>0.45862332288642088</v>
       </c>
       <c r="P569">
-        <v>23194</v>
+        <v>47936</v>
       </c>
     </row>
     <row r="570" spans="1:16">
@@ -28932,7 +28932,7 @@
         <v>0.37956184026751372</v>
       </c>
       <c r="P570">
-        <v>23123</v>
+        <v>48007</v>
       </c>
     </row>
     <row r="571" spans="1:16">
@@ -28982,7 +28982,7 @@
         <v>0.19774817608766959</v>
       </c>
       <c r="P571">
-        <v>23043</v>
+        <v>48087</v>
       </c>
     </row>
     <row r="572" spans="1:16">
@@ -29032,7 +29032,7 @@
         <v>2.9363120271226281E-2</v>
       </c>
       <c r="P572">
-        <v>22971</v>
+        <v>48159</v>
       </c>
     </row>
     <row r="573" spans="1:16">
@@ -29082,7 +29082,7 @@
         <v>0.23633956763636191</v>
       </c>
       <c r="P573">
-        <v>22897</v>
+        <v>48233</v>
       </c>
     </row>
     <row r="574" spans="1:16">
@@ -29132,7 +29132,7 @@
         <v>0.37977658599043651</v>
       </c>
       <c r="P574">
-        <v>22825</v>
+        <v>48305</v>
       </c>
     </row>
     <row r="575" spans="1:16">
@@ -29182,7 +29182,7 @@
         <v>0.49321128297479422</v>
       </c>
       <c r="P575">
-        <v>22754</v>
+        <v>48376</v>
       </c>
     </row>
     <row r="576" spans="1:16">
@@ -29232,7 +29232,7 @@
         <v>0.49091886258705048</v>
       </c>
       <c r="P576">
-        <v>22683</v>
+        <v>48447</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -29282,7 +29282,7 @@
         <v>0.46857286548969362</v>
       </c>
       <c r="P577">
-        <v>22613</v>
+        <v>48517</v>
       </c>
     </row>
     <row r="578" spans="1:16">
@@ -29332,7 +29332,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P578">
-        <v>22542</v>
+        <v>48588</v>
       </c>
     </row>
     <row r="579" spans="1:16">
@@ -29382,7 +29382,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P579">
-        <v>22474</v>
+        <v>48656</v>
       </c>
     </row>
     <row r="580" spans="1:16">
@@ -29432,7 +29432,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P580">
-        <v>22405</v>
+        <v>48725</v>
       </c>
     </row>
     <row r="581" spans="1:16">
@@ -29482,7 +29482,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P581">
-        <v>22339</v>
+        <v>48791</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -29532,7 +29532,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P582">
-        <v>22271</v>
+        <v>48859</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -29582,7 +29582,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P583">
-        <v>22203</v>
+        <v>48927</v>
       </c>
     </row>
     <row r="584" spans="1:16">
@@ -29632,7 +29632,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P584">
-        <v>22133</v>
+        <v>48997</v>
       </c>
     </row>
     <row r="585" spans="1:16">
@@ -29682,7 +29682,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P585">
-        <v>22066</v>
+        <v>49064</v>
       </c>
     </row>
     <row r="586" spans="1:16">
@@ -29732,7 +29732,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P586">
-        <v>21999</v>
+        <v>49131</v>
       </c>
     </row>
     <row r="587" spans="1:16">
@@ -29782,7 +29782,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P587">
-        <v>21935</v>
+        <v>49195</v>
       </c>
     </row>
     <row r="588" spans="1:16">
@@ -29832,7 +29832,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P588">
-        <v>21865</v>
+        <v>49265</v>
       </c>
     </row>
     <row r="589" spans="1:16">
@@ -29882,7 +29882,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P589">
-        <v>21799</v>
+        <v>49331</v>
       </c>
     </row>
     <row r="590" spans="1:16">
@@ -29932,7 +29932,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P590">
-        <v>21734</v>
+        <v>49396</v>
       </c>
     </row>
     <row r="591" spans="1:16">
@@ -29982,7 +29982,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P591">
-        <v>21668</v>
+        <v>49462</v>
       </c>
     </row>
     <row r="592" spans="1:16">
@@ -30032,7 +30032,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P592">
-        <v>21602</v>
+        <v>49528</v>
       </c>
     </row>
     <row r="593" spans="1:16">
@@ -30082,7 +30082,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P593">
-        <v>21538</v>
+        <v>49592</v>
       </c>
     </row>
     <row r="594" spans="1:16">
@@ -30132,7 +30132,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P594">
-        <v>21472</v>
+        <v>49658</v>
       </c>
     </row>
     <row r="595" spans="1:16">
@@ -30182,7 +30182,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P595">
-        <v>21407</v>
+        <v>49723</v>
       </c>
     </row>
     <row r="596" spans="1:16">
@@ -30232,7 +30232,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P596">
-        <v>21342</v>
+        <v>49788</v>
       </c>
     </row>
     <row r="597" spans="1:16">
@@ -30282,7 +30282,7 @@
         <v>0.3293358492252817</v>
       </c>
       <c r="P597">
-        <v>21278</v>
+        <v>49852</v>
       </c>
     </row>
     <row r="598" spans="1:16">
@@ -30332,7 +30332,7 @@
         <v>0.28013346730046368</v>
       </c>
       <c r="P598">
-        <v>21214</v>
+        <v>49916</v>
       </c>
     </row>
     <row r="599" spans="1:16">
@@ -30382,7 +30382,7 @@
         <v>0.195469431249541</v>
       </c>
       <c r="P599">
-        <v>21153</v>
+        <v>49977</v>
       </c>
     </row>
     <row r="600" spans="1:16">
@@ -30432,7 +30432,7 @@
         <v>3.3692425453727831E-2</v>
       </c>
       <c r="P600">
-        <v>21089</v>
+        <v>50041</v>
       </c>
     </row>
     <row r="601" spans="1:16">
@@ -30482,7 +30482,7 @@
         <v>0.16306021635410761</v>
       </c>
       <c r="P601">
-        <v>21025</v>
+        <v>50105</v>
       </c>
     </row>
     <row r="602" spans="1:16">
@@ -30532,7 +30532,7 @@
         <v>0.42966530568972711</v>
       </c>
       <c r="P602">
-        <v>20957</v>
+        <v>50173</v>
       </c>
     </row>
     <row r="603" spans="1:16">
@@ -30582,7 +30582,7 @@
         <v>0.64099301285909183</v>
       </c>
       <c r="P603">
-        <v>20891</v>
+        <v>50239</v>
       </c>
     </row>
     <row r="604" spans="1:16">
@@ -30632,7 +30632,7 @@
         <v>0.4815321779158539</v>
       </c>
       <c r="P604">
-        <v>20827</v>
+        <v>50303</v>
       </c>
     </row>
     <row r="605" spans="1:16">
@@ -30682,7 +30682,7 @@
         <v>0.27501368263655068</v>
       </c>
       <c r="P605">
-        <v>20763</v>
+        <v>50367</v>
       </c>
     </row>
     <row r="606" spans="1:16">
@@ -30732,7 +30732,7 @@
         <v>0.211730454192436</v>
       </c>
       <c r="P606">
-        <v>20699</v>
+        <v>50431</v>
       </c>
     </row>
     <row r="607" spans="1:16">
@@ -30782,7 +30782,7 @@
         <v>0.43611989031918708</v>
       </c>
       <c r="P607">
-        <v>20636</v>
+        <v>50494</v>
       </c>
     </row>
     <row r="608" spans="1:16">
@@ -30832,7 +30832,7 @@
         <v>0.53211163111062654</v>
       </c>
       <c r="P608">
-        <v>20571</v>
+        <v>50559</v>
       </c>
     </row>
     <row r="609" spans="1:16">
@@ -30882,7 +30882,7 @@
         <v>0.54625233087637404</v>
       </c>
       <c r="P609">
-        <v>20506</v>
+        <v>50624</v>
       </c>
     </row>
     <row r="610" spans="1:16">
@@ -30932,7 +30932,7 @@
         <v>0.67631333471010446</v>
       </c>
       <c r="P610">
-        <v>20441</v>
+        <v>50689</v>
       </c>
     </row>
     <row r="611" spans="1:16">
@@ -30982,7 +30982,7 @@
         <v>0.6988465660661286</v>
       </c>
       <c r="P611">
-        <v>20376</v>
+        <v>50754</v>
       </c>
     </row>
     <row r="612" spans="1:16">
@@ -31032,7 +31032,7 @@
         <v>0.59647297512247777</v>
       </c>
       <c r="P612">
-        <v>20311</v>
+        <v>50819</v>
       </c>
     </row>
     <row r="613" spans="1:16">
@@ -31082,7 +31082,7 @@
         <v>0.41760288509825028</v>
       </c>
       <c r="P613">
-        <v>20245</v>
+        <v>50885</v>
       </c>
     </row>
     <row r="614" spans="1:16">
@@ -31132,7 +31132,7 @@
         <v>0.24614795903819089</v>
       </c>
       <c r="P614">
-        <v>20179</v>
+        <v>50951</v>
       </c>
     </row>
     <row r="615" spans="1:16">
@@ -31182,7 +31182,7 @@
         <v>0.24137278194131859</v>
       </c>
       <c r="P615">
-        <v>20178</v>
+        <v>50952</v>
       </c>
     </row>
     <row r="616" spans="1:16">
@@ -31232,7 +31232,7 @@
         <v>0.51250903149485116</v>
       </c>
       <c r="P616">
-        <v>20114</v>
+        <v>51016</v>
       </c>
     </row>
     <row r="617" spans="1:16">
@@ -31282,7 +31282,7 @@
         <v>0.6129267492700432</v>
       </c>
       <c r="P617">
-        <v>20050</v>
+        <v>51080</v>
       </c>
     </row>
     <row r="618" spans="1:16">
@@ -31332,7 +31332,7 @@
         <v>0.64630791272798127</v>
       </c>
       <c r="P618">
-        <v>19986</v>
+        <v>51144</v>
       </c>
     </row>
     <row r="619" spans="1:16">
@@ -31382,7 +31382,7 @@
         <v>0.71945422707352635</v>
       </c>
       <c r="P619">
-        <v>19922</v>
+        <v>51208</v>
       </c>
     </row>
     <row r="620" spans="1:16">
@@ -31432,7 +31432,7 @@
         <v>0.48797611649054989</v>
       </c>
       <c r="P620">
-        <v>19858</v>
+        <v>51272</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -31482,7 +31482,7 @@
         <v>0.21358606297340679</v>
       </c>
       <c r="P621">
-        <v>19795</v>
+        <v>51335</v>
       </c>
     </row>
     <row r="622" spans="1:16">
@@ -31532,7 +31532,7 @@
         <v>0.4874514119235972</v>
       </c>
       <c r="P622">
-        <v>19730</v>
+        <v>51400</v>
       </c>
     </row>
     <row r="623" spans="1:16">
@@ -31582,7 +31582,7 @@
         <v>0.34731836561861729</v>
       </c>
       <c r="P623">
-        <v>19600</v>
+        <v>51530</v>
       </c>
     </row>
     <row r="624" spans="1:16">
@@ -31632,7 +31632,7 @@
         <v>0.30646341022022999</v>
       </c>
       <c r="P624">
-        <v>19537</v>
+        <v>51593</v>
       </c>
     </row>
     <row r="625" spans="1:16">
@@ -31682,7 +31682,7 @@
         <v>0.30727590239867492</v>
       </c>
       <c r="P625">
-        <v>19472</v>
+        <v>51658</v>
       </c>
     </row>
     <row r="626" spans="1:16">
@@ -31732,7 +31732,7 @@
         <v>0.22364730911605549</v>
       </c>
       <c r="P626">
-        <v>19344</v>
+        <v>51786</v>
       </c>
     </row>
     <row r="627" spans="1:16">
@@ -31782,7 +31782,7 @@
         <v>0.40861812697329619</v>
       </c>
       <c r="P627">
-        <v>19279</v>
+        <v>51851</v>
       </c>
     </row>
     <row r="628" spans="1:16">
@@ -31832,7 +31832,7 @@
         <v>0.57537955023346565</v>
       </c>
       <c r="P628">
-        <v>19215</v>
+        <v>51915</v>
       </c>
     </row>
     <row r="629" spans="1:16">
@@ -31882,7 +31882,7 @@
         <v>0.70287921074622506</v>
       </c>
       <c r="P629">
-        <v>19152</v>
+        <v>51978</v>
       </c>
     </row>
     <row r="630" spans="1:16">
@@ -31932,7 +31932,7 @@
         <v>0.83316008106638273</v>
       </c>
       <c r="P630">
-        <v>19092</v>
+        <v>52038</v>
       </c>
     </row>
     <row r="631" spans="1:16">
@@ -31982,7 +31982,7 @@
         <v>0.71102650719335347</v>
       </c>
       <c r="P631">
-        <v>19026</v>
+        <v>52104</v>
       </c>
     </row>
     <row r="632" spans="1:16">
@@ -32032,7 +32032,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P632">
-        <v>18962</v>
+        <v>52168</v>
       </c>
     </row>
     <row r="633" spans="1:16">
@@ -32082,7 +32082,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P633">
-        <v>18894</v>
+        <v>52236</v>
       </c>
     </row>
     <row r="634" spans="1:16">
@@ -32132,7 +32132,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P634">
-        <v>18826</v>
+        <v>52304</v>
       </c>
     </row>
     <row r="635" spans="1:16">
@@ -32182,7 +32182,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P635">
-        <v>18763</v>
+        <v>52367</v>
       </c>
     </row>
     <row r="636" spans="1:16">
@@ -32232,7 +32232,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P636">
-        <v>18697</v>
+        <v>52433</v>
       </c>
     </row>
     <row r="637" spans="1:16">
@@ -32282,7 +32282,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P637">
-        <v>18632</v>
+        <v>52498</v>
       </c>
     </row>
     <row r="638" spans="1:16">
@@ -32332,7 +32332,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P638">
-        <v>18570</v>
+        <v>52560</v>
       </c>
     </row>
     <row r="639" spans="1:16">
@@ -32382,7 +32382,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P639">
-        <v>18508</v>
+        <v>52622</v>
       </c>
     </row>
     <row r="640" spans="1:16">
@@ -32432,7 +32432,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P640">
-        <v>18444</v>
+        <v>52686</v>
       </c>
     </row>
     <row r="641" spans="1:16">
@@ -32482,7 +32482,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P641">
-        <v>18377</v>
+        <v>52753</v>
       </c>
     </row>
     <row r="642" spans="1:16">
@@ -32532,7 +32532,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P642">
-        <v>18310</v>
+        <v>52820</v>
       </c>
     </row>
     <row r="643" spans="1:16">
@@ -32582,7 +32582,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P643">
-        <v>18243</v>
+        <v>52887</v>
       </c>
     </row>
     <row r="644" spans="1:16">
@@ -32632,7 +32632,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P644">
-        <v>18177</v>
+        <v>52953</v>
       </c>
     </row>
     <row r="645" spans="1:16">
@@ -32682,7 +32682,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P645">
-        <v>18111</v>
+        <v>53019</v>
       </c>
     </row>
     <row r="646" spans="1:16">
@@ -32732,7 +32732,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P646">
-        <v>18045</v>
+        <v>53085</v>
       </c>
     </row>
     <row r="647" spans="1:16">
@@ -32782,7 +32782,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P647">
-        <v>17980</v>
+        <v>53150</v>
       </c>
     </row>
     <row r="648" spans="1:16">
@@ -32832,7 +32832,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P648">
-        <v>17912</v>
+        <v>53218</v>
       </c>
     </row>
     <row r="649" spans="1:16">
@@ -32882,7 +32882,7 @@
         <v>0.66983464024198669</v>
       </c>
       <c r="P649">
-        <v>17842</v>
+        <v>53288</v>
       </c>
     </row>
     <row r="650" spans="1:16">
@@ -32932,7 +32932,7 @@
         <v>0.56310285388629489</v>
       </c>
       <c r="P650">
-        <v>17770</v>
+        <v>53360</v>
       </c>
     </row>
     <row r="651" spans="1:16">
@@ -32982,7 +32982,7 @@
         <v>0.35284204206637559</v>
       </c>
       <c r="P651">
-        <v>17699</v>
+        <v>53431</v>
       </c>
     </row>
     <row r="652" spans="1:16">
@@ -33032,7 +33032,7 @@
         <v>0.19743427342924449</v>
       </c>
       <c r="P652">
-        <v>17628</v>
+        <v>53502</v>
       </c>
     </row>
     <row r="653" spans="1:16">
@@ -33082,7 +33082,7 @@
         <v>0.35043331510666448</v>
       </c>
       <c r="P653">
-        <v>17556</v>
+        <v>53574</v>
       </c>
     </row>
     <row r="654" spans="1:16">
@@ -33132,7 +33132,7 @@
         <v>0.33700299118246951</v>
       </c>
       <c r="P654">
-        <v>17486</v>
+        <v>53644</v>
       </c>
     </row>
     <row r="655" spans="1:16">
@@ -33182,7 +33182,7 @@
         <v>0.41570482897883781</v>
       </c>
       <c r="P655">
-        <v>17416</v>
+        <v>53714</v>
       </c>
     </row>
     <row r="656" spans="1:16">
@@ -33232,7 +33232,7 @@
         <v>0.23395541880339041</v>
       </c>
       <c r="P656">
-        <v>17282</v>
+        <v>53848</v>
       </c>
     </row>
     <row r="657" spans="1:16">
@@ -33282,7 +33282,7 @@
         <v>0.70667094626373606</v>
       </c>
       <c r="P657">
-        <v>17147</v>
+        <v>53983</v>
       </c>
     </row>
     <row r="658" spans="1:16">
@@ -33332,7 +33332,7 @@
         <v>0.62366350886332322</v>
       </c>
       <c r="P658">
-        <v>17080</v>
+        <v>54050</v>
       </c>
     </row>
     <row r="659" spans="1:16">
@@ -33382,7 +33382,7 @@
         <v>0.43411430595019879</v>
       </c>
       <c r="P659">
-        <v>17013</v>
+        <v>54117</v>
       </c>
     </row>
     <row r="660" spans="1:16">
@@ -33432,7 +33432,7 @@
         <v>0.28142569938092887</v>
       </c>
       <c r="P660">
-        <v>16945</v>
+        <v>54185</v>
       </c>
     </row>
     <row r="661" spans="1:16">
@@ -33482,7 +33482,7 @@
         <v>0.66862172414721499</v>
       </c>
       <c r="P661">
-        <v>16810</v>
+        <v>54320</v>
       </c>
     </row>
     <row r="662" spans="1:16">
@@ -33532,7 +33532,7 @@
         <v>0.69812871805139509</v>
       </c>
       <c r="P662">
-        <v>16741</v>
+        <v>54389</v>
       </c>
     </row>
     <row r="663" spans="1:16">
@@ -33582,7 +33582,7 @@
         <v>0.73161946656579213</v>
       </c>
       <c r="P663">
-        <v>16673</v>
+        <v>54457</v>
       </c>
     </row>
     <row r="664" spans="1:16">
@@ -33632,7 +33632,7 @@
         <v>0.52942869217193211</v>
       </c>
       <c r="P664">
-        <v>16605</v>
+        <v>54525</v>
       </c>
     </row>
     <row r="665" spans="1:16">
@@ -33682,7 +33682,7 @@
         <v>9.1350368784797742E-2</v>
       </c>
       <c r="P665">
-        <v>16537</v>
+        <v>54593</v>
       </c>
     </row>
     <row r="666" spans="1:16">
@@ -33732,7 +33732,7 @@
         <v>0.1767739786801312</v>
       </c>
       <c r="P666">
-        <v>16470</v>
+        <v>54660</v>
       </c>
     </row>
     <row r="667" spans="1:16">
@@ -33782,7 +33782,7 @@
         <v>0.1876464811176658</v>
       </c>
       <c r="P667">
-        <v>16403</v>
+        <v>54727</v>
       </c>
     </row>
     <row r="668" spans="1:16">
@@ -33832,7 +33832,7 @@
         <v>0.38299179567942337</v>
       </c>
       <c r="P668">
-        <v>16335</v>
+        <v>54795</v>
       </c>
     </row>
     <row r="669" spans="1:16">
@@ -33882,7 +33882,7 @@
         <v>0.50270473854001263</v>
       </c>
       <c r="P669">
-        <v>16268</v>
+        <v>54862</v>
       </c>
     </row>
     <row r="670" spans="1:16">
@@ -33932,7 +33932,7 @@
         <v>0.5534781281351201</v>
       </c>
       <c r="P670">
-        <v>16202</v>
+        <v>54928</v>
       </c>
     </row>
     <row r="671" spans="1:16">
@@ -33982,7 +33982,7 @@
         <v>0.61082465351342108</v>
       </c>
       <c r="P671">
-        <v>16134</v>
+        <v>54996</v>
       </c>
     </row>
     <row r="672" spans="1:16">
@@ -34032,7 +34032,7 @@
         <v>0.40997166814854408</v>
       </c>
       <c r="P672">
-        <v>16067</v>
+        <v>55063</v>
       </c>
     </row>
     <row r="673" spans="1:16">
@@ -34082,7 +34082,7 @@
         <v>0.21586827057320149</v>
       </c>
       <c r="P673">
-        <v>16001</v>
+        <v>55129</v>
       </c>
     </row>
     <row r="674" spans="1:16">
@@ -34132,7 +34132,7 @@
         <v>2.992109886314601E-2</v>
       </c>
       <c r="P674">
-        <v>15934</v>
+        <v>55196</v>
       </c>
     </row>
     <row r="675" spans="1:16">
@@ -34182,7 +34182,7 @@
         <v>0.12816111799915481</v>
       </c>
       <c r="P675">
-        <v>15867</v>
+        <v>55263</v>
       </c>
     </row>
     <row r="676" spans="1:16">
@@ -34232,7 +34232,7 @@
         <v>0.28480484807635958</v>
       </c>
       <c r="P676">
-        <v>15799</v>
+        <v>55331</v>
       </c>
     </row>
     <row r="677" spans="1:16">
@@ -34282,7 +34282,7 @@
         <v>0.35599413482129982</v>
       </c>
       <c r="P677">
-        <v>15732</v>
+        <v>55398</v>
       </c>
     </row>
     <row r="678" spans="1:16">
@@ -34332,7 +34332,7 @@
         <v>0.43430189026154908</v>
       </c>
       <c r="P678">
-        <v>15665</v>
+        <v>55465</v>
       </c>
     </row>
     <row r="679" spans="1:16">
@@ -34382,7 +34382,7 @@
         <v>0.48781654073382152</v>
       </c>
       <c r="P679">
-        <v>15595</v>
+        <v>55535</v>
       </c>
     </row>
     <row r="680" spans="1:16">
@@ -34432,7 +34432,7 @@
         <v>0.46857286548969362</v>
       </c>
       <c r="P680">
-        <v>15525</v>
+        <v>55605</v>
       </c>
     </row>
     <row r="681" spans="1:16">
@@ -34482,7 +34482,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P681">
-        <v>15456</v>
+        <v>55674</v>
       </c>
     </row>
     <row r="682" spans="1:16">
@@ -34532,7 +34532,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P682">
-        <v>15385</v>
+        <v>55745</v>
       </c>
     </row>
     <row r="683" spans="1:16">
@@ -34582,7 +34582,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P683">
-        <v>15314</v>
+        <v>55816</v>
       </c>
     </row>
     <row r="684" spans="1:16">
@@ -34632,7 +34632,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P684">
-        <v>15246</v>
+        <v>55884</v>
       </c>
     </row>
     <row r="685" spans="1:16">
@@ -34682,7 +34682,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P685">
-        <v>15178</v>
+        <v>55952</v>
       </c>
     </row>
     <row r="686" spans="1:16">
@@ -34732,7 +34732,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P686">
-        <v>15110</v>
+        <v>56020</v>
       </c>
     </row>
     <row r="687" spans="1:16">
@@ -34782,7 +34782,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P687">
-        <v>15040</v>
+        <v>56090</v>
       </c>
     </row>
     <row r="688" spans="1:16">
@@ -34832,7 +34832,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P688">
-        <v>14973</v>
+        <v>56157</v>
       </c>
     </row>
     <row r="689" spans="1:16">
@@ -34882,7 +34882,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P689">
-        <v>14903</v>
+        <v>56227</v>
       </c>
     </row>
     <row r="690" spans="1:16">
@@ -34932,7 +34932,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P690">
-        <v>14835</v>
+        <v>56295</v>
       </c>
     </row>
     <row r="691" spans="1:16">
@@ -34982,7 +34982,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P691">
-        <v>14766</v>
+        <v>56364</v>
       </c>
     </row>
     <row r="692" spans="1:16">
@@ -35032,7 +35032,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P692">
-        <v>14697</v>
+        <v>56433</v>
       </c>
     </row>
     <row r="693" spans="1:16">
@@ -35082,7 +35082,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P693">
-        <v>14626</v>
+        <v>56504</v>
       </c>
     </row>
     <row r="694" spans="1:16">
@@ -35132,7 +35132,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P694">
-        <v>14558</v>
+        <v>56572</v>
       </c>
     </row>
     <row r="695" spans="1:16">
@@ -35182,7 +35182,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P695">
-        <v>14491</v>
+        <v>56639</v>
       </c>
     </row>
     <row r="696" spans="1:16">
@@ -35232,7 +35232,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P696">
-        <v>14422</v>
+        <v>56708</v>
       </c>
     </row>
     <row r="697" spans="1:16">
@@ -35282,7 +35282,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P697">
-        <v>14354</v>
+        <v>56776</v>
       </c>
     </row>
     <row r="698" spans="1:16">
@@ -35332,7 +35332,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P698">
-        <v>14285</v>
+        <v>56845</v>
       </c>
     </row>
     <row r="699" spans="1:16">
@@ -35382,7 +35382,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P699">
-        <v>14216</v>
+        <v>56914</v>
       </c>
     </row>
     <row r="700" spans="1:16">
@@ -35432,7 +35432,7 @@
         <v>0.36967182373832502</v>
       </c>
       <c r="P700">
-        <v>14147</v>
+        <v>56983</v>
       </c>
     </row>
     <row r="701" spans="1:16">
@@ -35482,7 +35482,7 @@
         <v>0.28013346730046368</v>
       </c>
       <c r="P701">
-        <v>14080</v>
+        <v>57050</v>
       </c>
     </row>
     <row r="702" spans="1:16">
@@ -35532,7 +35532,7 @@
         <v>0.1413806161942395</v>
       </c>
       <c r="P702">
-        <v>14011</v>
+        <v>57119</v>
       </c>
     </row>
     <row r="703" spans="1:16">
@@ -35582,7 +35582,7 @@
         <v>6.3891546210687239E-2</v>
       </c>
       <c r="P703">
-        <v>13943</v>
+        <v>57187</v>
       </c>
     </row>
     <row r="704" spans="1:16">
@@ -35632,7 +35632,7 @@
         <v>0.21729034967860891</v>
       </c>
       <c r="P704">
-        <v>13873</v>
+        <v>57257</v>
       </c>
     </row>
     <row r="705" spans="1:16">
@@ -35682,7 +35682,7 @@
         <v>0.32627973962938872</v>
       </c>
       <c r="P705">
-        <v>13804</v>
+        <v>57326</v>
       </c>
     </row>
     <row r="706" spans="1:16">
@@ -35732,7 +35732,7 @@
         <v>0.47217591055690489</v>
       </c>
       <c r="P706">
-        <v>13734</v>
+        <v>57396</v>
       </c>
     </row>
     <row r="707" spans="1:16">
@@ -35782,7 +35782,7 @@
         <v>0.5775918800483052</v>
       </c>
       <c r="P707">
-        <v>13662</v>
+        <v>57468</v>
       </c>
     </row>
     <row r="708" spans="1:16">
@@ -35832,7 +35832,7 @@
         <v>0.32769371607486297</v>
       </c>
       <c r="P708">
-        <v>13591</v>
+        <v>57539</v>
       </c>
     </row>
     <row r="709" spans="1:16">
@@ -35882,7 +35882,7 @@
         <v>0.23483691476087751</v>
       </c>
       <c r="P709">
-        <v>13525</v>
+        <v>57605</v>
       </c>
     </row>
     <row r="710" spans="1:16">
@@ -35932,7 +35932,7 @@
         <v>0.32972807390279951</v>
       </c>
       <c r="P710">
-        <v>13451</v>
+        <v>57679</v>
       </c>
     </row>
     <row r="711" spans="1:16">
@@ -35982,7 +35982,7 @@
         <v>0.52367743021049074</v>
       </c>
       <c r="P711">
-        <v>13381</v>
+        <v>57749</v>
       </c>
     </row>
     <row r="712" spans="1:16">
@@ -36032,7 +36032,7 @@
         <v>0.52044466259345001</v>
       </c>
       <c r="P712">
-        <v>13316</v>
+        <v>57814</v>
       </c>
     </row>
     <row r="713" spans="1:16">
@@ -36082,7 +36082,7 @@
         <v>0.55061250438141385</v>
       </c>
       <c r="P713">
-        <v>13249</v>
+        <v>57881</v>
       </c>
     </row>
     <row r="714" spans="1:16">
@@ -36132,7 +36132,7 @@
         <v>0.70520849058891089</v>
       </c>
       <c r="P714">
-        <v>13181</v>
+        <v>57949</v>
       </c>
     </row>
     <row r="715" spans="1:16">
@@ -36182,7 +36182,7 @@
         <v>0.59235313591580019</v>
       </c>
       <c r="P715">
-        <v>13114</v>
+        <v>58016</v>
       </c>
     </row>
     <row r="716" spans="1:16">
@@ -36232,7 +36232,7 @@
         <v>0.37815211027557699</v>
       </c>
       <c r="P716">
-        <v>13046</v>
+        <v>58084</v>
       </c>
     </row>
     <row r="717" spans="1:16">
@@ -36282,7 +36282,7 @@
         <v>0.27084158662759422</v>
       </c>
       <c r="P717">
-        <v>12979</v>
+        <v>58151</v>
       </c>
     </row>
     <row r="718" spans="1:16">
@@ -36332,7 +36332,7 @@
         <v>0.17168359000934161</v>
       </c>
       <c r="P718">
-        <v>12907</v>
+        <v>58223</v>
       </c>
     </row>
     <row r="719" spans="1:16">
@@ -36382,7 +36382,7 @@
         <v>0.61807176860258817</v>
       </c>
       <c r="P719">
-        <v>12797</v>
+        <v>58333</v>
       </c>
     </row>
     <row r="720" spans="1:16">
@@ -36432,7 +36432,7 @@
         <v>0.63112046267939403</v>
       </c>
       <c r="P720">
-        <v>12729</v>
+        <v>58401</v>
       </c>
     </row>
     <row r="721" spans="1:16">
@@ -36482,7 +36482,7 @@
         <v>0.7438721040919174</v>
       </c>
       <c r="P721">
-        <v>12662</v>
+        <v>58468</v>
       </c>
     </row>
     <row r="722" spans="1:16">
@@ -36532,7 +36532,7 @@
         <v>0.46974958740161987</v>
       </c>
       <c r="P722">
-        <v>12458</v>
+        <v>58672</v>
       </c>
     </row>
     <row r="723" spans="1:16">
@@ -36582,7 +36582,7 @@
         <v>0.6837140806656683</v>
       </c>
       <c r="P723">
-        <v>12392</v>
+        <v>58738</v>
       </c>
     </row>
     <row r="724" spans="1:16">
@@ -36632,7 +36632,7 @@
         <v>0.35037704515265872</v>
       </c>
       <c r="P724">
-        <v>12333</v>
+        <v>58797</v>
       </c>
     </row>
     <row r="725" spans="1:16">
@@ -36682,7 +36682,7 @@
         <v>0.30841230409919201</v>
       </c>
       <c r="P725">
-        <v>12275</v>
+        <v>58855</v>
       </c>
     </row>
     <row r="726" spans="1:16">
@@ -36732,7 +36732,7 @@
         <v>0.23836981448205641</v>
       </c>
       <c r="P726">
-        <v>12218</v>
+        <v>58912</v>
       </c>
     </row>
     <row r="727" spans="1:16">
@@ -36782,7 +36782,7 @@
         <v>0.16760508537700411</v>
       </c>
       <c r="P727">
-        <v>12161</v>
+        <v>58969</v>
       </c>
     </row>
     <row r="728" spans="1:16">
@@ -36832,7 +36832,7 @@
         <v>0.27502038856960531</v>
       </c>
       <c r="P728">
-        <v>12102</v>
+        <v>59028</v>
       </c>
     </row>
     <row r="729" spans="1:16">
@@ -36882,7 +36882,7 @@
         <v>0.47675913458415659</v>
       </c>
       <c r="P729">
-        <v>12046</v>
+        <v>59084</v>
       </c>
     </row>
     <row r="730" spans="1:16">
@@ -36932,7 +36932,7 @@
         <v>0.6814663499281548</v>
       </c>
       <c r="P730">
-        <v>11987</v>
+        <v>59143</v>
       </c>
     </row>
     <row r="731" spans="1:16">
@@ -36982,7 +36982,7 @@
         <v>0.82414217777748822</v>
       </c>
       <c r="P731">
-        <v>11929</v>
+        <v>59201</v>
       </c>
     </row>
     <row r="732" spans="1:16">
@@ -37032,7 +37032,7 @@
         <v>0.67456235462537562</v>
       </c>
       <c r="P732">
-        <v>11871</v>
+        <v>59259</v>
       </c>
     </row>
     <row r="733" spans="1:16">
@@ -37082,7 +37082,7 @@
         <v>0.66266610733462139</v>
       </c>
       <c r="P733">
-        <v>11814</v>
+        <v>59316</v>
       </c>
     </row>
     <row r="734" spans="1:16">
@@ -37132,7 +37132,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P734">
-        <v>11756</v>
+        <v>59374</v>
       </c>
     </row>
     <row r="735" spans="1:16">
@@ -37182,7 +37182,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P735">
-        <v>11639</v>
+        <v>59491</v>
       </c>
     </row>
     <row r="736" spans="1:16">
@@ -37232,7 +37232,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P736">
-        <v>11583</v>
+        <v>59547</v>
       </c>
     </row>
     <row r="737" spans="1:16">
@@ -37282,7 +37282,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P737">
-        <v>11525</v>
+        <v>59605</v>
       </c>
     </row>
     <row r="738" spans="1:16">
@@ -37332,7 +37332,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P738">
-        <v>11468</v>
+        <v>59662</v>
       </c>
     </row>
     <row r="739" spans="1:16">
@@ -37382,7 +37382,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P739">
-        <v>11411</v>
+        <v>59719</v>
       </c>
     </row>
     <row r="740" spans="1:16">
@@ -37432,7 +37432,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P740">
-        <v>11359</v>
+        <v>59771</v>
       </c>
     </row>
     <row r="741" spans="1:16">
@@ -37482,7 +37482,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P741">
-        <v>11297</v>
+        <v>59833</v>
       </c>
     </row>
     <row r="742" spans="1:16">
@@ -37532,7 +37532,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P742">
-        <v>11239</v>
+        <v>59891</v>
       </c>
     </row>
     <row r="743" spans="1:16">
@@ -37582,7 +37582,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P743">
-        <v>11182</v>
+        <v>59948</v>
       </c>
     </row>
     <row r="744" spans="1:16">
@@ -37632,7 +37632,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P744">
-        <v>11123</v>
+        <v>60007</v>
       </c>
     </row>
     <row r="745" spans="1:16">
@@ -37682,7 +37682,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P745">
-        <v>11064</v>
+        <v>60066</v>
       </c>
     </row>
     <row r="746" spans="1:16">
@@ -37732,7 +37732,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P746">
-        <v>11005</v>
+        <v>60125</v>
       </c>
     </row>
     <row r="747" spans="1:16">
@@ -37782,7 +37782,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P747">
-        <v>10949</v>
+        <v>60181</v>
       </c>
     </row>
     <row r="748" spans="1:16">
@@ -37832,7 +37832,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P748">
-        <v>10890</v>
+        <v>60240</v>
       </c>
     </row>
     <row r="749" spans="1:16">
@@ -37882,7 +37882,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P749">
-        <v>10832</v>
+        <v>60298</v>
       </c>
     </row>
     <row r="750" spans="1:16">
@@ -37932,7 +37932,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P750">
-        <v>10771</v>
+        <v>60359</v>
       </c>
     </row>
     <row r="751" spans="1:16">
@@ -37982,7 +37982,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P751">
-        <v>10715</v>
+        <v>60415</v>
       </c>
     </row>
     <row r="752" spans="1:16">
@@ -38032,7 +38032,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P752">
-        <v>10656</v>
+        <v>60474</v>
       </c>
     </row>
     <row r="753" spans="1:16">
@@ -38082,7 +38082,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P753">
-        <v>10598</v>
+        <v>60532</v>
       </c>
     </row>
     <row r="754" spans="1:16">
@@ -38132,7 +38132,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P754">
-        <v>10541</v>
+        <v>60589</v>
       </c>
     </row>
     <row r="755" spans="1:16">
@@ -38182,7 +38182,7 @@
         <v>0.66233388690385242</v>
       </c>
       <c r="P755">
-        <v>10481</v>
+        <v>60649</v>
       </c>
     </row>
     <row r="756" spans="1:16">
@@ -38232,7 +38232,7 @@
         <v>0.66275456387078779</v>
       </c>
       <c r="P756">
-        <v>10431</v>
+        <v>60699</v>
       </c>
     </row>
     <row r="757" spans="1:16">
@@ -38282,7 +38282,7 @@
         <v>0.67073207437699922</v>
       </c>
       <c r="P757">
-        <v>10363</v>
+        <v>60767</v>
       </c>
     </row>
     <row r="758" spans="1:16">
@@ -38332,7 +38332,7 @@
         <v>0.38576305503663771</v>
       </c>
       <c r="P758">
-        <v>10306</v>
+        <v>60824</v>
       </c>
     </row>
     <row r="759" spans="1:16">
@@ -38382,7 +38382,7 @@
         <v>0.34208868656056862</v>
       </c>
       <c r="P759">
-        <v>10247</v>
+        <v>60883</v>
       </c>
     </row>
     <row r="760" spans="1:16">
@@ -38432,7 +38432,7 @@
         <v>0.16037521594723569</v>
       </c>
       <c r="P760">
-        <v>10190</v>
+        <v>60940</v>
       </c>
     </row>
     <row r="761" spans="1:16">
@@ -38482,7 +38482,7 @@
         <v>0.33967336570973589</v>
       </c>
       <c r="P761">
-        <v>10134</v>
+        <v>60996</v>
       </c>
     </row>
     <row r="762" spans="1:16">
@@ -38532,7 +38532,7 @@
         <v>0.32818705359761458</v>
       </c>
       <c r="P762">
-        <v>10079</v>
+        <v>61051</v>
       </c>
     </row>
     <row r="763" spans="1:16">
@@ -38582,7 +38582,7 @@
         <v>0.3685274605714996</v>
       </c>
       <c r="P763">
-        <v>10022</v>
+        <v>61108</v>
       </c>
     </row>
     <row r="764" spans="1:16">
@@ -38632,7 +38632,7 @@
         <v>0.73599005392959804</v>
       </c>
       <c r="P764">
-        <v>9967</v>
+        <v>61163</v>
       </c>
     </row>
     <row r="765" spans="1:16">
@@ -38682,7 +38682,7 @@
         <v>0.47363419659814732</v>
       </c>
       <c r="P765">
-        <v>9912</v>
+        <v>61218</v>
       </c>
     </row>
     <row r="766" spans="1:16">
@@ -38732,7 +38732,7 @@
         <v>0.22029398318695331</v>
       </c>
       <c r="P766">
-        <v>9856</v>
+        <v>61274</v>
       </c>
     </row>
     <row r="767" spans="1:16">
@@ -38782,7 +38782,7 @@
         <v>0.22029398318695331</v>
       </c>
       <c r="P767">
-        <v>9855</v>
+        <v>61275</v>
       </c>
     </row>
     <row r="768" spans="1:16">
@@ -38832,7 +38832,7 @@
         <v>0.7009775930914256</v>
       </c>
       <c r="P768">
-        <v>9799</v>
+        <v>61331</v>
       </c>
     </row>
     <row r="769" spans="1:16">
@@ -38882,7 +38882,7 @@
         <v>0.64578626262849803</v>
       </c>
       <c r="P769">
-        <v>9743</v>
+        <v>61387</v>
       </c>
     </row>
     <row r="770" spans="1:16">
@@ -38932,7 +38932,7 @@
         <v>0.62370934572081727</v>
       </c>
       <c r="P770">
-        <v>9686</v>
+        <v>61444</v>
       </c>
     </row>
     <row r="771" spans="1:16">
@@ -38982,7 +38982,7 @@
         <v>0.65604030156226623</v>
       </c>
       <c r="P771">
-        <v>9628</v>
+        <v>61502</v>
       </c>
     </row>
     <row r="772" spans="1:16">
@@ -39032,7 +39032,7 @@
         <v>0.60642814723948812</v>
       </c>
       <c r="P772">
-        <v>9569</v>
+        <v>61561</v>
       </c>
     </row>
     <row r="773" spans="1:16">
@@ -39082,7 +39082,7 @@
         <v>0.20608474806914501</v>
       </c>
       <c r="P773">
-        <v>9510</v>
+        <v>61620</v>
       </c>
     </row>
     <row r="774" spans="1:16">
@@ -39132,7 +39132,7 @@
         <v>0.40811053133353348</v>
       </c>
       <c r="P774">
-        <v>9451</v>
+        <v>61679</v>
       </c>
     </row>
     <row r="775" spans="1:16">
@@ -39182,7 +39182,7 @@
         <v>0.56585753622109669</v>
       </c>
       <c r="P775">
-        <v>9392</v>
+        <v>61738</v>
       </c>
     </row>
     <row r="776" spans="1:16">
@@ -39232,7 +39232,7 @@
         <v>0.70976926469550117</v>
       </c>
       <c r="P776">
-        <v>9273</v>
+        <v>61857</v>
       </c>
     </row>
     <row r="777" spans="1:16">
@@ -39282,7 +39282,7 @@
         <v>0.50853583329920804</v>
       </c>
       <c r="P777">
-        <v>9214</v>
+        <v>61916</v>
       </c>
     </row>
     <row r="778" spans="1:16">
@@ -39332,7 +39332,7 @@
         <v>0.34576787218401778</v>
       </c>
       <c r="P778">
-        <v>9156</v>
+        <v>61974</v>
       </c>
     </row>
     <row r="779" spans="1:16">
@@ -39382,7 +39382,7 @@
         <v>8.865143018838241E-2</v>
       </c>
       <c r="P779">
-        <v>9100</v>
+        <v>62030</v>
       </c>
     </row>
     <row r="780" spans="1:16">
@@ -39432,7 +39432,7 @@
         <v>0.1876464811176658</v>
       </c>
       <c r="P780">
-        <v>9041</v>
+        <v>62089</v>
       </c>
     </row>
     <row r="781" spans="1:16">
@@ -39482,7 +39482,7 @@
         <v>0.39355875562085602</v>
       </c>
       <c r="P781">
-        <v>8983</v>
+        <v>62147</v>
       </c>
     </row>
     <row r="782" spans="1:16">
@@ -39532,7 +39532,7 @@
         <v>0.49706575560225658</v>
       </c>
       <c r="P782">
-        <v>8925</v>
+        <v>62205</v>
       </c>
     </row>
     <row r="783" spans="1:16">
@@ -39582,7 +39582,7 @@
         <v>0.62907586366769741</v>
       </c>
       <c r="P783">
-        <v>8869</v>
+        <v>62261</v>
       </c>
     </row>
     <row r="784" spans="1:16">
@@ -39632,7 +39632,7 @@
         <v>0.59255679665970418</v>
       </c>
       <c r="P784">
-        <v>8812</v>
+        <v>62318</v>
       </c>
     </row>
     <row r="785" spans="1:16">
@@ -39682,7 +39682,7 @@
         <v>0.39785452533912002</v>
       </c>
       <c r="P785">
-        <v>8754</v>
+        <v>62376</v>
       </c>
     </row>
     <row r="786" spans="1:16">
@@ -39732,7 +39732,7 @@
         <v>0.21586827057320149</v>
       </c>
       <c r="P786">
-        <v>8705</v>
+        <v>62425</v>
       </c>
     </row>
     <row r="787" spans="1:16">
@@ -39782,7 +39782,7 @@
         <v>7.0222788171972014E-2</v>
       </c>
       <c r="P787">
-        <v>8639</v>
+        <v>62491</v>
       </c>
     </row>
     <row r="788" spans="1:16">
@@ -39832,7 +39832,7 @@
         <v>0.175980292177493</v>
       </c>
       <c r="P788">
-        <v>8582</v>
+        <v>62548</v>
       </c>
     </row>
     <row r="789" spans="1:16">
@@ -39882,7 +39882,7 @@
         <v>0.37977658599043651</v>
       </c>
       <c r="P789">
-        <v>8523</v>
+        <v>62607</v>
       </c>
     </row>
     <row r="790" spans="1:16">
@@ -39932,7 +39932,7 @@
         <v>0.40400663130546588</v>
       </c>
       <c r="P790">
-        <v>8464</v>
+        <v>62666</v>
       </c>
     </row>
     <row r="791" spans="1:16">
@@ -39982,7 +39982,7 @@
         <v>0.49708112659696191</v>
       </c>
       <c r="P791">
-        <v>8407</v>
+        <v>62723</v>
       </c>
     </row>
     <row r="792" spans="1:16">
@@ -40032,7 +40032,7 @@
         <v>0.46857286548969362</v>
       </c>
       <c r="P792">
-        <v>8346</v>
+        <v>62784</v>
       </c>
     </row>
     <row r="793" spans="1:16">
@@ -40082,7 +40082,7 @@
         <v>0.46857286548969362</v>
       </c>
       <c r="P793">
-        <v>8290</v>
+        <v>62840</v>
       </c>
     </row>
     <row r="794" spans="1:16">
@@ -40132,7 +40132,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P794">
-        <v>8233</v>
+        <v>62897</v>
       </c>
     </row>
     <row r="795" spans="1:16">
@@ -40182,7 +40182,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P795">
-        <v>8175</v>
+        <v>62955</v>
       </c>
     </row>
     <row r="796" spans="1:16">
@@ -40232,7 +40232,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P796">
-        <v>8116</v>
+        <v>63014</v>
       </c>
     </row>
     <row r="797" spans="1:16">
@@ -40282,7 +40282,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P797">
-        <v>8060</v>
+        <v>63070</v>
       </c>
     </row>
     <row r="798" spans="1:16">
@@ -40332,7 +40332,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P798">
-        <v>8002</v>
+        <v>63128</v>
       </c>
     </row>
     <row r="799" spans="1:16">
@@ -40382,7 +40382,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P799">
-        <v>7944</v>
+        <v>63186</v>
       </c>
     </row>
     <row r="800" spans="1:16">
@@ -40432,7 +40432,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P800">
-        <v>7887</v>
+        <v>63243</v>
       </c>
     </row>
     <row r="801" spans="1:16">
@@ -40482,7 +40482,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P801">
-        <v>7830</v>
+        <v>63300</v>
       </c>
     </row>
     <row r="802" spans="1:16">
@@ -40532,7 +40532,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P802">
-        <v>7772</v>
+        <v>63358</v>
       </c>
     </row>
     <row r="803" spans="1:16">
@@ -40582,7 +40582,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P803">
-        <v>7715</v>
+        <v>63415</v>
       </c>
     </row>
     <row r="804" spans="1:16">
@@ -40632,7 +40632,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P804">
-        <v>7657</v>
+        <v>63473</v>
       </c>
     </row>
     <row r="805" spans="1:16">
@@ -40682,7 +40682,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P805">
-        <v>7600</v>
+        <v>63530</v>
       </c>
     </row>
     <row r="806" spans="1:16">
@@ -40732,7 +40732,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P806">
-        <v>7542</v>
+        <v>63588</v>
       </c>
     </row>
     <row r="807" spans="1:16">
@@ -40782,7 +40782,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P807">
-        <v>7485</v>
+        <v>63645</v>
       </c>
     </row>
     <row r="808" spans="1:16">
@@ -40832,7 +40832,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P808">
-        <v>7428</v>
+        <v>63702</v>
       </c>
     </row>
     <row r="809" spans="1:16">
@@ -40882,7 +40882,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P809">
-        <v>7371</v>
+        <v>63759</v>
       </c>
     </row>
     <row r="810" spans="1:16">
@@ -40932,7 +40932,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P810">
-        <v>7315</v>
+        <v>63815</v>
       </c>
     </row>
     <row r="811" spans="1:16">
@@ -40982,7 +40982,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P811">
-        <v>7257</v>
+        <v>63873</v>
       </c>
     </row>
     <row r="812" spans="1:16">
@@ -41032,7 +41032,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P812">
-        <v>7198</v>
+        <v>63932</v>
       </c>
     </row>
     <row r="813" spans="1:16">
@@ -41082,7 +41082,7 @@
         <v>0.38607529304679089</v>
       </c>
       <c r="P813">
-        <v>7141</v>
+        <v>63989</v>
       </c>
     </row>
     <row r="814" spans="1:16">
@@ -41132,7 +41132,7 @@
         <v>0.25063062800229602</v>
       </c>
       <c r="P814">
-        <v>7082</v>
+        <v>64048</v>
       </c>
     </row>
     <row r="815" spans="1:16">
@@ -41182,7 +41182,7 @@
         <v>9.2006866124835968E-2</v>
       </c>
       <c r="P815">
-        <v>6967</v>
+        <v>64163</v>
       </c>
     </row>
     <row r="816" spans="1:16">
@@ -41232,7 +41232,7 @@
         <v>0.18715879114243941</v>
       </c>
       <c r="P816">
-        <v>6908</v>
+        <v>64222</v>
       </c>
     </row>
     <row r="817" spans="1:16">
@@ -41282,7 +41282,7 @@
         <v>0.36878211331776428</v>
       </c>
       <c r="P817">
-        <v>6849</v>
+        <v>64281</v>
       </c>
     </row>
     <row r="818" spans="1:16">
@@ -41332,7 +41332,7 @@
         <v>0.51476224502183976</v>
       </c>
       <c r="P818">
-        <v>6791</v>
+        <v>64339</v>
       </c>
     </row>
     <row r="819" spans="1:16">
@@ -41382,7 +41382,7 @@
         <v>0.62944580159917851</v>
       </c>
       <c r="P819">
-        <v>6733</v>
+        <v>64397</v>
       </c>
     </row>
     <row r="820" spans="1:16">
@@ -41432,7 +41432,7 @@
         <v>0.4650241506214805</v>
       </c>
       <c r="P820">
-        <v>6674</v>
+        <v>64456</v>
       </c>
     </row>
     <row r="821" spans="1:16">
@@ -41482,7 +41482,7 @@
         <v>0.2915580941867375</v>
       </c>
       <c r="P821">
-        <v>6613</v>
+        <v>64517</v>
       </c>
     </row>
     <row r="822" spans="1:16">
@@ -41532,7 +41532,7 @@
         <v>0.22971418987847139</v>
       </c>
       <c r="P822">
-        <v>6551</v>
+        <v>64579</v>
       </c>
     </row>
     <row r="823" spans="1:16">
@@ -41582,7 +41582,7 @@
         <v>0.28951160256556152</v>
       </c>
       <c r="P823">
-        <v>6488</v>
+        <v>64642</v>
       </c>
     </row>
     <row r="824" spans="1:16">
@@ -41632,7 +41632,7 @@
         <v>0.37361382385191533</v>
       </c>
       <c r="P824">
-        <v>6426</v>
+        <v>64704</v>
       </c>
     </row>
     <row r="825" spans="1:16">
@@ -41682,7 +41682,7 @@
         <v>0.52100102586230701</v>
       </c>
       <c r="P825">
-        <v>6366</v>
+        <v>64764</v>
       </c>
     </row>
     <row r="826" spans="1:16">
@@ -41732,7 +41732,7 @@
         <v>0.71355356747505827</v>
       </c>
       <c r="P826">
-        <v>6304</v>
+        <v>64826</v>
       </c>
     </row>
     <row r="827" spans="1:16">
@@ -41782,7 +41782,7 @@
         <v>0.63359002198846415</v>
       </c>
       <c r="P827">
-        <v>6244</v>
+        <v>64886</v>
       </c>
     </row>
     <row r="828" spans="1:16">
@@ -41832,7 +41832,7 @@
         <v>0.39300760003912832</v>
       </c>
       <c r="P828">
-        <v>6122</v>
+        <v>65008</v>
       </c>
     </row>
     <row r="829" spans="1:16">
@@ -41882,7 +41882,7 @@
         <v>0.17887341464888651</v>
       </c>
       <c r="P829">
-        <v>6061</v>
+        <v>65069</v>
       </c>
     </row>
     <row r="830" spans="1:16">
@@ -41932,7 +41932,7 @@
         <v>0.61265046132516143</v>
       </c>
       <c r="P830">
-        <v>5996</v>
+        <v>65134</v>
       </c>
     </row>
     <row r="831" spans="1:16">
@@ -41982,7 +41982,7 @@
         <v>0.68429998947815673</v>
       </c>
       <c r="P831">
-        <v>5935</v>
+        <v>65195</v>
       </c>
     </row>
     <row r="832" spans="1:16">
@@ -42032,7 +42032,7 @@
         <v>0.65649637565585739</v>
       </c>
       <c r="P832">
-        <v>5873</v>
+        <v>65257</v>
       </c>
     </row>
     <row r="833" spans="1:16">
@@ -42082,7 +42082,7 @@
         <v>0.52843746113349199</v>
       </c>
       <c r="P833">
-        <v>5806</v>
+        <v>65324</v>
       </c>
     </row>
     <row r="834" spans="1:16">
@@ -42132,7 +42132,7 @@
         <v>0.24832100436797741</v>
       </c>
       <c r="P834">
-        <v>5704</v>
+        <v>65426</v>
       </c>
     </row>
     <row r="835" spans="1:16">
@@ -42182,7 +42182,7 @@
         <v>0.51104521166841499</v>
       </c>
       <c r="P835">
-        <v>5639</v>
+        <v>65491</v>
       </c>
     </row>
     <row r="836" spans="1:16">
@@ -42232,7 +42232,7 @@
         <v>0.66561529751490789</v>
       </c>
       <c r="P836">
-        <v>5572</v>
+        <v>65558</v>
       </c>
     </row>
     <row r="837" spans="1:16">
@@ -42282,7 +42282,7 @@
         <v>0.49716889772181078</v>
       </c>
       <c r="P837">
-        <v>5510</v>
+        <v>65620</v>
       </c>
     </row>
     <row r="838" spans="1:16">
@@ -42332,7 +42332,7 @@
         <v>0.49716889772181078</v>
       </c>
       <c r="P838">
-        <v>5447</v>
+        <v>65683</v>
       </c>
     </row>
     <row r="839" spans="1:16">
@@ -42382,7 +42382,7 @@
         <v>0.49716889772181078</v>
       </c>
       <c r="P839">
-        <v>5384</v>
+        <v>65746</v>
       </c>
     </row>
     <row r="840" spans="1:16">
@@ -42432,7 +42432,7 @@
         <v>0.49716889772181078</v>
       </c>
       <c r="P840">
-        <v>5320</v>
+        <v>65810</v>
       </c>
     </row>
     <row r="841" spans="1:16">
@@ -42482,7 +42482,7 @@
         <v>0.36953955802457739</v>
       </c>
       <c r="P841">
-        <v>5253</v>
+        <v>65877</v>
       </c>
     </row>
     <row r="842" spans="1:16">
@@ -42532,7 +42532,7 @@
         <v>0.30961428411950331</v>
       </c>
       <c r="P842">
-        <v>5185</v>
+        <v>65945</v>
       </c>
     </row>
     <row r="843" spans="1:16">
@@ -42582,7 +42582,7 @@
         <v>0.25228677609781208</v>
       </c>
       <c r="P843">
-        <v>5115</v>
+        <v>66015</v>
       </c>
     </row>
     <row r="844" spans="1:16">
@@ -42632,7 +42632,7 @@
         <v>0.15911787379329889</v>
       </c>
       <c r="P844">
-        <v>5045</v>
+        <v>66085</v>
       </c>
     </row>
     <row r="845" spans="1:16">
@@ -42682,7 +42682,7 @@
         <v>0.38632712061552521</v>
       </c>
       <c r="P845">
-        <v>4975</v>
+        <v>66155</v>
       </c>
     </row>
     <row r="846" spans="1:16">
@@ -42732,7 +42732,7 @@
         <v>0.40861812697329619</v>
       </c>
       <c r="P846">
-        <v>4904</v>
+        <v>66226</v>
       </c>
     </row>
     <row r="847" spans="1:16">
@@ -42782,7 +42782,7 @@
         <v>0.66730399140388086</v>
       </c>
       <c r="P847">
-        <v>4835</v>
+        <v>66295</v>
       </c>
     </row>
     <row r="848" spans="1:16">
@@ -42832,7 +42832,7 @@
         <v>0.81195645499898594</v>
       </c>
       <c r="P848">
-        <v>4766</v>
+        <v>66364</v>
       </c>
     </row>
     <row r="849" spans="1:16">
@@ -42882,7 +42882,7 @@
         <v>0.81464692577480857</v>
       </c>
       <c r="P849">
-        <v>4694</v>
+        <v>66436</v>
       </c>
     </row>
     <row r="850" spans="1:16">
@@ -42932,7 +42932,7 @@
         <v>0.66266610733462139</v>
       </c>
       <c r="P850">
-        <v>4626</v>
+        <v>66504</v>
       </c>
     </row>
     <row r="851" spans="1:16">
@@ -42982,7 +42982,7 @@
         <v>0.66071240595572334</v>
       </c>
       <c r="P851">
-        <v>3498</v>
+        <v>67632</v>
       </c>
     </row>
     <row r="852" spans="1:16">
@@ -43032,7 +43032,7 @@
         <v>0.4739246870713637</v>
       </c>
       <c r="P852">
-        <v>3420</v>
+        <v>67710</v>
       </c>
     </row>
     <row r="853" spans="1:16">
@@ -43082,7 +43082,7 @@
         <v>0.31338361258763248</v>
       </c>
       <c r="P853">
-        <v>3336</v>
+        <v>67794</v>
       </c>
     </row>
     <row r="854" spans="1:16">
@@ -43132,7 +43132,7 @@
         <v>0.25789876194494832</v>
       </c>
       <c r="P854">
-        <v>3257</v>
+        <v>67873</v>
       </c>
     </row>
     <row r="855" spans="1:16">
@@ -43182,7 +43182,7 @@
         <v>0.3526054221898608</v>
       </c>
       <c r="P855">
-        <v>3171</v>
+        <v>67959</v>
       </c>
     </row>
     <row r="856" spans="1:16">
@@ -43232,7 +43232,7 @@
         <v>0.33509884834032178</v>
       </c>
       <c r="P856">
-        <v>3086</v>
+        <v>68044</v>
       </c>
     </row>
     <row r="857" spans="1:16">
@@ -43282,7 +43282,7 @@
         <v>0.44775503235595859</v>
       </c>
       <c r="P857">
-        <v>3002</v>
+        <v>68128</v>
       </c>
     </row>
     <row r="858" spans="1:16">
@@ -43332,7 +43332,7 @@
         <v>0.41288479200737088</v>
       </c>
       <c r="P858">
-        <v>2918</v>
+        <v>68212</v>
       </c>
     </row>
     <row r="859" spans="1:16">
@@ -43382,7 +43382,7 @@
         <v>0.74323005042976453</v>
       </c>
       <c r="P859">
-        <v>2750</v>
+        <v>68380</v>
       </c>
     </row>
     <row r="860" spans="1:16">
@@ -43432,7 +43432,7 @@
         <v>0.63582093676400186</v>
       </c>
       <c r="P860">
-        <v>2661</v>
+        <v>68469</v>
       </c>
     </row>
     <row r="861" spans="1:16">
@@ -43482,7 +43482,7 @@
         <v>0.64122573558364604</v>
       </c>
       <c r="P861">
-        <v>2571</v>
+        <v>68559</v>
       </c>
     </row>
     <row r="862" spans="1:16">
@@ -43532,7 +43532,7 @@
         <v>0.1550156568817545</v>
       </c>
       <c r="P862">
-        <v>2486</v>
+        <v>68644</v>
       </c>
     </row>
     <row r="863" spans="1:16">
@@ -43582,7 +43582,7 @@
         <v>0.44345333509407397</v>
       </c>
       <c r="P863">
-        <v>2394</v>
+        <v>68736</v>
       </c>
     </row>
     <row r="864" spans="1:16">
@@ -43632,7 +43632,7 @@
         <v>0.6331129891264059</v>
       </c>
       <c r="P864">
-        <v>2306</v>
+        <v>68824</v>
       </c>
     </row>
     <row r="865" spans="1:16">
@@ -43682,7 +43682,7 @@
         <v>0.74208920663498812</v>
       </c>
       <c r="P865">
-        <v>2217</v>
+        <v>68913</v>
       </c>
     </row>
     <row r="866" spans="1:16">
@@ -43732,7 +43732,7 @@
         <v>0.50459063958600392</v>
       </c>
       <c r="P866">
-        <v>2130</v>
+        <v>69000</v>
       </c>
     </row>
     <row r="867" spans="1:16">
@@ -43782,7 +43782,7 @@
         <v>0.28678783435433169</v>
       </c>
       <c r="P867">
-        <v>2042</v>
+        <v>69088</v>
       </c>
     </row>
     <row r="868" spans="1:16">
@@ -43832,7 +43832,7 @@
         <v>8.5466261645640529E-2</v>
       </c>
       <c r="P868">
-        <v>1954</v>
+        <v>69176</v>
       </c>
     </row>
     <row r="869" spans="1:16">
@@ -43882,7 +43882,7 @@
         <v>0.26734211824014942</v>
       </c>
       <c r="P869">
-        <v>1863</v>
+        <v>69267</v>
       </c>
     </row>
     <row r="870" spans="1:16">
@@ -43932,7 +43932,7 @@
         <v>0.48593748202650511</v>
       </c>
       <c r="P870">
-        <v>1769</v>
+        <v>69361</v>
       </c>
     </row>
     <row r="871" spans="1:16">
@@ -43982,7 +43982,7 @@
         <v>0.6169405276630936</v>
       </c>
       <c r="P871">
-        <v>1682</v>
+        <v>69448</v>
       </c>
     </row>
     <row r="872" spans="1:16">
@@ -44032,7 +44032,7 @@
         <v>0.53168799672382139</v>
       </c>
       <c r="P872">
-        <v>1584</v>
+        <v>69546</v>
       </c>
     </row>
     <row r="873" spans="1:16">
@@ -44082,7 +44082,7 @@
         <v>0.30677549951317479</v>
       </c>
       <c r="P873">
-        <v>1495</v>
+        <v>69635</v>
       </c>
     </row>
     <row r="874" spans="1:16">
@@ -44132,7 +44132,7 @@
         <v>7.9352010686812469E-2</v>
       </c>
       <c r="P874">
-        <v>1400</v>
+        <v>69730</v>
       </c>
     </row>
     <row r="875" spans="1:16">
@@ -44182,7 +44182,7 @@
         <v>0.23024456291165191</v>
       </c>
       <c r="P875">
-        <v>1300</v>
+        <v>69830</v>
       </c>
     </row>
     <row r="876" spans="1:16">
@@ -44232,7 +44232,7 @@
         <v>0.45967614709814408</v>
       </c>
       <c r="P876">
-        <v>1203</v>
+        <v>69927</v>
       </c>
     </row>
     <row r="877" spans="1:16">
@@ -44282,7 +44282,7 @@
         <v>0.46857286548969362</v>
       </c>
       <c r="P877">
-        <v>1104</v>
+        <v>70026</v>
       </c>
     </row>
     <row r="878" spans="1:16">
@@ -44332,7 +44332,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P878">
-        <v>1009</v>
+        <v>70121</v>
       </c>
     </row>
     <row r="879" spans="1:16">
@@ -44382,7 +44382,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P879">
-        <v>907</v>
+        <v>70223</v>
       </c>
     </row>
     <row r="880" spans="1:16">
@@ -44432,7 +44432,7 @@
         <v>0.46814104486993879</v>
       </c>
       <c r="P880">
-        <v>710</v>
+        <v>70420</v>
       </c>
     </row>
     <row r="881" spans="1:16">
@@ -44482,7 +44482,7 @@
         <v>0.25677927078567608</v>
       </c>
       <c r="P881">
-        <v>609</v>
+        <v>70521</v>
       </c>
     </row>
     <row r="882" spans="1:16">
@@ -44532,7 +44532,7 @@
         <v>5.1044888213056097E-2</v>
       </c>
       <c r="P882">
-        <v>507</v>
+        <v>70623</v>
       </c>
     </row>
     <row r="883" spans="1:16">
@@ -44582,7 +44582,7 @@
         <v>8.6328139329701223E-2</v>
       </c>
       <c r="P883">
-        <v>408</v>
+        <v>70722</v>
       </c>
     </row>
     <row r="884" spans="1:16">
@@ -44632,7 +44632,7 @@
         <v>0.30208730777444132</v>
       </c>
       <c r="P884">
-        <v>307</v>
+        <v>70823</v>
       </c>
     </row>
     <row r="885" spans="1:16">
@@ -44682,7 +44682,7 @@
         <v>0.59998641181376444</v>
       </c>
       <c r="P885">
-        <v>202</v>
+        <v>70928</v>
       </c>
     </row>
     <row r="886" spans="1:16">
@@ -44732,7 +44732,7 @@
         <v>0.4815321779158539</v>
       </c>
       <c r="P886">
-        <v>101</v>
+        <v>71029</v>
       </c>
     </row>
     <row r="887" spans="1:16">
@@ -44782,7 +44782,7 @@
         <v>0.2182376913462831</v>
       </c>
       <c r="P887">
-        <v>0</v>
+        <v>71130</v>
       </c>
     </row>
   </sheetData>
